--- a/biology/Botanique/Trèfle_de_Thal/Trèfle_de_Thal.xlsx
+++ b/biology/Botanique/Trèfle_de_Thal/Trèfle_de_Thal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_de_Thal</t>
+          <t>Trèfle_de_Thal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium thalii
 Le trèfle de Thal, ou trèfle de Thalius (Trifolium thalii Vill.) est une petite plante gazonnante du genre Trifolium (les trèfles), poussant dans les massifs montagneux, Alpes et Pyrénées surtout, à fleurs blanches devenant ensuite rose vif. Comme tous les trèfles, il appartient à l'ordre des Fabales et à la famille des Fabacées (ou Légumineuses, ou Papilionacées). Son nom lui a été donné en hommage au botaniste allemand du XVIe siècle Johannes Thal.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_de_Thal</t>
+          <t>Trèfle_de_Thal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace relativement rare, rencontrée dans les Alpes et le Jura ainsi que dans les Pyrénées, à des altitudes variant de 1000 à 3000 mètres. Elle pousse surtout sur sol calcaire, sur les pelouses, les rocailles, parfois à proximité des cours d'eau. Floraison de juin à août.
-Morphologie générale et végétative
-Plante herbacée gazonnante, très basse (5 à 15 cm), à souche épaisse émettant des rejets stériles. Les feuilles, longuement pétiolées, sont basales. Folioles ovales, légèrement dentées.
-Morphologie florale
-Fleurs hermaphrodites en têtes globuleuses assez serrées. L'inflorescence est portée par un long pédoncule partant de la souche. Calice à cinq dents nettement plus court que la corolle. Fleurs blanches au début, devenant très vite rose vif. Pollinisation par les insectes.
-Fruit et graines
-Le fruit est une gousse non incluse dans le calice. Dissémination épizoochore.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace relativement rare, rencontrée dans les Alpes et le Jura ainsi que dans les Pyrénées, à des altitudes variant de 1000 à 3000 mètres. Elle pousse surtout sur sol calcaire, sur les pelouses, les rocailles, parfois à proximité des cours d'eau. Floraison de juin à août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trèfle_de_Thal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_de_Thal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée gazonnante, très basse (5 à 15 cm), à souche épaisse émettant des rejets stériles. Les feuilles, longuement pétiolées, sont basales. Folioles ovales, légèrement dentées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trèfle_de_Thal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_de_Thal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs hermaphrodites en têtes globuleuses assez serrées. L'inflorescence est portée par un long pédoncule partant de la souche. Calice à cinq dents nettement plus court que la corolle. Fleurs blanches au début, devenant très vite rose vif. Pollinisation par les insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trèfle_de_Thal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_de_Thal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une gousse non incluse dans le calice. Dissémination épizoochore.
 </t>
         </is>
       </c>
